--- a/Manual/Tracking_201504.xlsx
+++ b/Manual/Tracking_201504.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="211">
   <si>
     <t>Initials</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>Free to allocate</t>
   </si>
   <si>
     <t>ST</t>
@@ -323,13 +320,425 @@
     <t>[GB: Ancillary Services/Insurances] - Complete RNC schema</t>
   </si>
   <si>
-    <t>Remaining work</t>
-  </si>
-  <si>
     <t>Patch preparation + application</t>
   </si>
   <si>
     <t>FTP patch update + test cleanup patch + apply . Wrote to CC on progress. + data check</t>
+  </si>
+  <si>
+    <t>Sd-2.8 New server DB: Updates issues</t>
+  </si>
+  <si>
+    <t>pgsql</t>
+  </si>
+  <si>
+    <t>corrections related to external booking references</t>
+  </si>
+  <si>
+    <t>Modified SP + testing</t>
+  </si>
+  <si>
+    <t>improve location management</t>
+  </si>
+  <si>
+    <t>modified view + created SP + testing</t>
+  </si>
+  <si>
+    <t>checked updated on new server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked precache GTA data </t>
+  </si>
+  <si>
+    <t>Check why RMT update fails on prod after new URL update</t>
+  </si>
+  <si>
+    <t>Cuba extrapolation</t>
+  </si>
+  <si>
+    <t>Patch for 2.7 : prepare + test</t>
+  </si>
+  <si>
+    <t>checkded data + relaunched GTA GT + queued L + checked results afterwards</t>
+  </si>
+  <si>
+    <t>reproduce problem + fix + test. + change to remove DTD</t>
+  </si>
+  <si>
+    <t>studied RQ document for EXP</t>
+  </si>
+  <si>
+    <t>Assist PS for updating SD-29142 instance + guide for fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update + guide </t>
+  </si>
+  <si>
+    <t>tracking sheet + weekly meetings table</t>
+  </si>
+  <si>
+    <t>read doc + xsl + questions and problems to CC + test</t>
+  </si>
+  <si>
+    <t>[SQA] - Enhancement in the Amadeus transaction</t>
+  </si>
+  <si>
+    <t>correction of an issue with CC + test</t>
+  </si>
+  <si>
+    <t>JS+CC + tracking sheet + venda report</t>
+  </si>
+  <si>
+    <t>MM + SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done + remaining listed in task </t>
+  </si>
+  <si>
+    <t>Addition of parend log in Response</t>
+  </si>
+  <si>
+    <t>Checked Issue + corrections C# + test + problems on my computer</t>
+  </si>
+  <si>
+    <t>data validation</t>
+  </si>
+  <si>
+    <t>Replication</t>
+  </si>
+  <si>
+    <t>setup of replication activity</t>
+  </si>
+  <si>
+    <t>check for indexes are present or not on new server</t>
+  </si>
+  <si>
+    <t>add a column to bkg_booking_external + propagate in diff SPs</t>
+  </si>
+  <si>
+    <t>added column in table + Modified SP</t>
+  </si>
+  <si>
+    <t>create a SP to return external references for given booking</t>
+  </si>
+  <si>
+    <t>created SP + testing + coordinate with SS (to help him)</t>
+  </si>
+  <si>
+    <t>testing + update task</t>
+  </si>
+  <si>
+    <t>change bkg_booking__replace so that a winter booking will keep its bbkg_id_booking during its evolutions</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>modify sys function</t>
+  </si>
+  <si>
+    <t>discuss with ST + update task</t>
+  </si>
+  <si>
+    <t>discuss with ST</t>
+  </si>
+  <si>
+    <t>call with ST for Planning + work status</t>
+  </si>
+  <si>
+    <t>booking + winter</t>
+  </si>
+  <si>
+    <t>correct daigram</t>
+  </si>
+  <si>
+    <t>Changed code for DTD removal + tested on SD. To PS for further tests. Discuss with PS</t>
+  </si>
+  <si>
+    <t>Manual requests + analysis + discussion with DF</t>
+  </si>
+  <si>
+    <t>XSL change + started DB change</t>
+  </si>
+  <si>
+    <t>Merged 2.8 changes to 2.9</t>
+  </si>
+  <si>
+    <t>Weekly planning</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Farebasis</t>
+  </si>
+  <si>
+    <t>Discuss with CC + start implementation</t>
+  </si>
+  <si>
+    <t>Finish Test tool coding + start tests</t>
+  </si>
+  <si>
+    <t>List use cases for 2.9</t>
+  </si>
+  <si>
+    <t>tracking sheet + objective status update</t>
+  </si>
+  <si>
+    <t>updated devcache + GTs + L + mentioned how to check</t>
+  </si>
+  <si>
+    <t>finish code + Tests</t>
+  </si>
+  <si>
+    <t>changes SQA + SPR SPs. Yet to implement Match + XSL change. Asked PS for test cases</t>
+  </si>
+  <si>
+    <t>2.9 New server DB : Updates Issues</t>
+  </si>
+  <si>
+    <t>checked update issues+ updated task</t>
+  </si>
+  <si>
+    <t>Sd- 2.8 New server DB : Updates Issues</t>
+  </si>
+  <si>
+    <t>data validation + created wiki + updated task</t>
+  </si>
+  <si>
+    <t>change bkg_booking__replace so that a winter booking will keep
+ its bbkg_id_booking during its evolutions</t>
+  </si>
+  <si>
+    <t>Improve stats speed</t>
+  </si>
+  <si>
+    <t>Discuss with ST, testing, updated task</t>
+  </si>
+  <si>
+    <t>Created wiki for view &amp; SP</t>
+  </si>
+  <si>
+    <t>call with ST for work planning</t>
+  </si>
+  <si>
+    <t>Change bkg_booking__replace so that a winter booking will keep its bbkg_id_booking during its evolutions</t>
+  </si>
+  <si>
+    <t>Check the status and update task</t>
+  </si>
+  <si>
+    <t>Test data in replication server and execute Search</t>
+  </si>
+  <si>
+    <t>Tests the data and update in task</t>
+  </si>
+  <si>
+    <t>Refresh Materialized view vdi_airport</t>
+  </si>
+  <si>
+    <t>Add error message into SP sto_quotation__search if quotation search doesn't return any results</t>
+  </si>
+  <si>
+    <t>discuss with YT and coding and testing</t>
+  </si>
+  <si>
+    <t>Coding and testing</t>
+  </si>
+  <si>
+    <t>LogManagerFS : convert code from sql to pgsql</t>
+  </si>
+  <si>
+    <t>Coordinate with Dhanesh and help him to finish it</t>
+  </si>
+  <si>
+    <t>[PGSQL] Check All core_modules Tables</t>
+  </si>
+  <si>
+    <t>[QUOTATION] Cleanup sto_tariff functions and related</t>
+  </si>
+  <si>
+    <t>Analysis and Discussion</t>
+  </si>
+  <si>
+    <t>document bkg_booking__replace</t>
+  </si>
+  <si>
+    <t>Check update files + finalize patch</t>
+  </si>
+  <si>
+    <t>sp_checkIndex need correction for 2.8</t>
+  </si>
+  <si>
+    <t>Create 2.9 DB without galaxyref</t>
+  </si>
+  <si>
+    <t>guide uma</t>
+  </si>
+  <si>
+    <t>Check se_versioned_tarif cleanup</t>
+  </si>
+  <si>
+    <t>Free to allocate</t>
+  </si>
+  <si>
+    <t>Uma : some testcases to her</t>
+  </si>
+  <si>
+    <t>SK + Raj + MM</t>
+  </si>
+  <si>
+    <t>[Point Projet 28 Janvier] - Convert when required Cache output from EUR to vendor currency</t>
+  </si>
+  <si>
+    <t>Update Booking - Addition of ancillary services in a booking</t>
+  </si>
+  <si>
+    <t>Remaing : questins with CC + 3rd step</t>
+  </si>
+  <si>
+    <t>RMT failed on production</t>
+  </si>
+  <si>
+    <t>Prod Mail</t>
+  </si>
+  <si>
+    <t>Some testcases to execute</t>
+  </si>
+  <si>
+    <t>Testcases correction</t>
+  </si>
+  <si>
+    <t>[GB: Ancillary Services/Insurances] - Add Service/Insurance segments, seat assignment and insurance booking in Bookings</t>
+  </si>
+  <si>
+    <t>Mails+ Reply</t>
+  </si>
+  <si>
+    <t>Feedback to Raj for mail</t>
+  </si>
+  <si>
+    <t>[GB: Ancillary Services/Insurances] - Complete RNC schemas according to the documentation Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads + analysis </t>
+  </si>
+  <si>
+    <t>Answer CC questions regarding EXP</t>
+  </si>
+  <si>
+    <t>EXP update for hotel + checked corrections for booking ref in 2.8</t>
+  </si>
+  <si>
+    <t>Started test tool dev</t>
+  </si>
+  <si>
+    <t>tested data + excuted search + updated task</t>
+  </si>
+  <si>
+    <t>Sd-2.9 New server DB : Updates Issues</t>
+  </si>
+  <si>
+    <t>checked updates</t>
+  </si>
+  <si>
+    <t>checked updates + updated task</t>
+  </si>
+  <si>
+    <t>call with ST + analysis  + planning</t>
+  </si>
+  <si>
+    <t>Analysis+praposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill up tracking sheet </t>
+  </si>
+  <si>
+    <t>Sd- 2.9 New server DB : Updates Issues</t>
+  </si>
+  <si>
+    <t>Discussion with Uma</t>
+  </si>
+  <si>
+    <t>Discussion about this week's plan, 8619, 8395, Hotel new server</t>
+  </si>
+  <si>
+    <t>server setup</t>
+  </si>
+  <si>
+    <t>2.8 New server DB : Updates Issues</t>
+  </si>
+  <si>
+    <t>Apply the recent installation script, executed post processing manually</t>
+  </si>
+  <si>
+    <t>Correct the synonyms</t>
+  </si>
+  <si>
+    <t>Checked the GQA script and suggested UZ to take help of PS and run some sqa, spr and gqa valid queries</t>
+  </si>
+  <si>
+    <t>Mail shows 0 room updated for JNV</t>
+  </si>
+  <si>
+    <t>check and updated task with details</t>
+  </si>
+  <si>
+    <t>Setup of sql server for Rajendra</t>
+  </si>
+  <si>
+    <t>Setup Raj id on sd-29142 and checked his access problem</t>
+  </si>
+  <si>
+    <t>Daily updates and discussion</t>
+  </si>
+  <si>
+    <t>tracking sheet and weekly task</t>
+  </si>
+  <si>
+    <t>Analysis and testing and task updated</t>
+  </si>
+  <si>
+    <t>Analysis, discussion and proposal</t>
+  </si>
+  <si>
+    <t>Testing of SQA, GQA and SPR on 2.8_rep database</t>
+  </si>
+  <si>
+    <t>EXP CB problem on precache</t>
+  </si>
+  <si>
+    <t>JS+CC + tracking sheet+ ST (2.8_rep tests)</t>
+  </si>
+  <si>
+    <t>Raj + SK + RN</t>
+  </si>
+  <si>
+    <t>questions with CC + proceed, not finished</t>
+  </si>
+  <si>
+    <t>Output to CC for verification + question</t>
+  </si>
+  <si>
+    <t>Hotel weekly planning</t>
+  </si>
+  <si>
+    <t>with DF, CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check + fix + test + patch </t>
+  </si>
+  <si>
+    <t>Tool coding</t>
+  </si>
+  <si>
+    <t>Call with Raj + Shubhad for brief on hotel and what to do for 8660</t>
+  </si>
+  <si>
+    <t>Dashboard issue</t>
+  </si>
+  <si>
+    <t>Discussion with everybody + conclude as corner case. To DF for approval of planning for 2.9</t>
   </si>
 </sst>
 </file>
@@ -397,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +889,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -522,7 +943,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -597,7 +1018,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -621,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -668,6 +1085,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,6 +1148,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -991,10 +1483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BB209"/>
+  <dimension ref="A1:BB290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,11 +1494,11 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="42" customWidth="1"/>
     <col min="5" max="5" width="18" style="33" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="55" customWidth="1"/>
     <col min="9" max="9" width="61.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.7109375" style="28" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1025,7 +1517,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="37" t="s">
@@ -1037,7 +1529,7 @@
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="51" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="23" t="s">
@@ -1069,17 +1561,17 @@
       <c r="C2" s="17">
         <v>42095</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="18">
@@ -1091,8 +1583,8 @@
       <c r="M2" s="11">
         <v>-1</v>
       </c>
-      <c r="N2" s="75" t="s">
-        <v>56</v>
+      <c r="N2" s="98" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -1105,24 +1597,24 @@
       <c r="C3" s="17">
         <v>42095</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>8093</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18">
         <v>2.8</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="K3" s="18">
         <v>3</v>
@@ -1133,7 +1625,7 @@
       <c r="M3" s="11">
         <v>-1</v>
       </c>
-      <c r="N3" s="75"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="30">
       <c r="A4" s="13" t="s">
@@ -1145,24 +1637,24 @@
       <c r="C4" s="17">
         <v>42095</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="18">
         <v>2.8</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="18">
         <v>1</v>
@@ -1173,7 +1665,7 @@
       <c r="M4" s="11">
         <v>-1</v>
       </c>
-      <c r="N4" s="75"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="13" t="s">
@@ -1185,21 +1677,21 @@
       <c r="C5" s="17">
         <v>42095</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="18">
         <v>2.8</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="18">
@@ -1211,7 +1703,7 @@
       <c r="M5" s="11">
         <v>-1</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="98"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1">
       <c r="A6" s="13" t="s">
@@ -1223,7 +1715,7 @@
       <c r="C6" s="17">
         <v>42095</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>8085</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -1233,14 +1725,14 @@
       <c r="G6" s="18">
         <v>2.9</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="K6" s="18">
         <v>2</v>
@@ -1251,7 +1743,7 @@
       <c r="M6" s="11">
         <v>-1</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1">
       <c r="A7" s="13" t="s">
@@ -1263,19 +1755,19 @@
       <c r="C7" s="17">
         <v>42095</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="54"/>
+        <v>51</v>
+      </c>
+      <c r="H7" s="52"/>
       <c r="I7" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="18">
@@ -1298,30 +1790,30 @@
       <c r="C8" s="17">
         <v>42095</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>8586</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18">
         <v>2.8</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="72">
+      <c r="L8" s="70">
         <v>3.5</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="70">
         <v>0</v>
       </c>
     </row>
@@ -1335,28 +1827,32 @@
       <c r="C9" s="15">
         <v>42096</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="55"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="K9" s="4">
         <v>0.25</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
+      <c r="L9" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="30">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1366,32 +1862,34 @@
       <c r="C10" s="15">
         <v>42096</v>
       </c>
-      <c r="D10" s="44">
-        <v>8085</v>
+      <c r="D10" s="43">
+        <v>8586</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="H10" s="55" t="s">
+        <v>2.8</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="4">
+        <v>84</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="74">
         <v>2</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="30">
+      <c r="M10" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1401,32 +1899,34 @@
       <c r="C11" s="15">
         <v>42096</v>
       </c>
-      <c r="D11" s="44">
-        <v>8166</v>
+      <c r="D11" s="43">
+        <v>8577</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="H11" s="55" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="H11" s="53" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
+        <v>83</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="30">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1436,32 +1936,30 @@
       <c r="C12" s="15">
         <v>42096</v>
       </c>
-      <c r="D12" s="44">
-        <v>8036</v>
+      <c r="D12" s="43">
+        <v>8554</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="H12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="53" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+        <v>85</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="M12" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1">
       <c r="A13" s="13" t="s">
@@ -1473,26 +1971,34 @@
       <c r="C13" s="15">
         <v>42096</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="43">
+        <v>8085</v>
+      </c>
       <c r="E13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="K13" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="13" t="s">
@@ -1504,992 +2010,5126 @@
       <c r="C14" s="15">
         <v>42096</v>
       </c>
-      <c r="D14" s="44">
-        <v>8093</v>
+      <c r="D14" s="43">
+        <v>8309</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="H14" s="55" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="H14" s="53" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
+        <v>66</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="70">
+        <v>1</v>
+      </c>
+      <c r="M14" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="17">
-        <v>42097</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1">
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15">
+        <v>42096</v>
+      </c>
+      <c r="D15" s="43">
+        <v>8283</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="30">
       <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="17">
-        <v>42097</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="18">
-        <v>4</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1">
+      <c r="B16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>42096</v>
+      </c>
+      <c r="D16" s="43">
+        <v>8166</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17">
-        <v>42097</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="B17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15">
+        <v>42096</v>
+      </c>
+      <c r="D17" s="43">
+        <v>8036</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4">
         <v>2.9</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1">
+      <c r="H17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15">
+        <v>42096</v>
+      </c>
+      <c r="D18" s="43">
+        <v>8093</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C19" s="17">
         <v>42097</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="29" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L19" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D20" s="41">
+        <v>8554</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
+      <c r="A21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D21" s="41">
+        <v>8309</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="18">
+        <v>4</v>
+      </c>
+      <c r="L21" s="70">
+        <v>3.5</v>
+      </c>
+      <c r="M21" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D22" s="41">
+        <v>8085</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="70">
+        <v>1.25</v>
+      </c>
+      <c r="M22" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="A23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="74">
+        <v>1</v>
+      </c>
+      <c r="M23" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1">
+      <c r="A24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1">
+      <c r="A25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17">
+        <v>42097</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L25" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1">
+      <c r="A26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15">
+        <v>42100</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="70">
+        <v>1</v>
+      </c>
+      <c r="M26" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15">
+        <v>42100</v>
+      </c>
+      <c r="D27" s="43">
+        <v>8085</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="70">
+        <v>2</v>
+      </c>
+      <c r="M27" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="15">
+        <v>42100</v>
+      </c>
+      <c r="D28" s="43">
+        <v>8554</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="70">
+        <v>1</v>
+      </c>
+      <c r="M28" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1">
+      <c r="A29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L29" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D30" s="41">
+        <v>8554</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1">
+      <c r="A31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D31" s="41">
+        <v>8085</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="18">
+        <v>2</v>
+      </c>
+      <c r="L31" s="74">
+        <v>4.5</v>
+      </c>
+      <c r="M31" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D33" s="41">
+        <v>8309</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="18">
+        <v>3</v>
+      </c>
+      <c r="L33" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1">
+      <c r="A34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1">
+      <c r="A35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="17">
+        <v>42101</v>
+      </c>
+      <c r="D35" s="41">
+        <v>7688</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1">
+      <c r="A36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="A37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D37" s="43">
+        <v>8654</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="74">
+        <v>3</v>
+      </c>
+      <c r="M37" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1">
+      <c r="A38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1">
+      <c r="A39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L39" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M39" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1">
+      <c r="A40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D40" s="43">
+        <v>8309</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="M40" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1">
+      <c r="A41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="74">
+        <v>1</v>
+      </c>
+      <c r="M41" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1">
+      <c r="A42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D42" s="43">
+        <v>7688</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D43" s="43">
+        <v>8566</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="17">
+        <v>42103</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
+      <c r="A45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="17">
+        <v>42103</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1">
+      <c r="A46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="17">
+        <v>42103</v>
+      </c>
+      <c r="D46" s="41">
+        <v>8309</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1">
+      <c r="A47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1">
+      <c r="A48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="30">
+      <c r="A49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D49" s="43">
+        <v>8166</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1">
+      <c r="A50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D50" s="43">
+        <v>8036</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+    </row>
+    <row r="51" spans="1:14" s="1" customFormat="1">
+      <c r="A51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="4">
+        <v>3</v>
+      </c>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1">
+      <c r="A52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="4">
+        <v>3</v>
+      </c>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L53" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="74">
+        <v>1</v>
+      </c>
+      <c r="N53" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="18">
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="74">
+        <v>1</v>
+      </c>
+      <c r="M54" s="74">
+        <v>1</v>
+      </c>
+      <c r="N54" s="97"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="26"/>
+      <c r="K55" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="74">
+        <v>1</v>
+      </c>
+      <c r="N55" s="97"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D56" s="45">
+        <v>8580</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" s="7">
+        <v>3</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D57" s="45">
+        <v>8581</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2</v>
+      </c>
+      <c r="L57" s="70">
+        <v>5</v>
+      </c>
+      <c r="M57" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D58" s="45">
+        <v>8238</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="74">
+        <v>1</v>
+      </c>
+      <c r="M58" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="19">
+        <v>42096</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="4">
         <v>0.25</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="L59" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M59" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="19">
+        <v>42096</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="74">
+        <v>1</v>
+      </c>
+      <c r="M60" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="19">
+        <v>42096</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L61" s="74">
+        <v>1</v>
+      </c>
+      <c r="M61" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="19">
+        <v>42096</v>
+      </c>
+      <c r="D62" s="43">
+        <v>8581</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" s="4">
+        <v>3</v>
+      </c>
+      <c r="L62" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="M62" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="30">
+      <c r="A63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="19">
+        <v>42096</v>
+      </c>
+      <c r="D63" s="43">
+        <v>8283</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="4">
+        <v>3</v>
+      </c>
+      <c r="L63" s="74">
+        <v>3</v>
+      </c>
+      <c r="M63" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="8">
+        <v>42097</v>
+      </c>
+      <c r="D64" s="45"/>
+      <c r="E64" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L64" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="M64" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="8">
+        <v>42097</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="94">
+        <v>1.5</v>
+      </c>
+      <c r="M65" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="8">
+        <v>42097</v>
+      </c>
+      <c r="D66" s="45"/>
+      <c r="E66" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L66" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30">
+      <c r="A67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="8">
+        <v>42097</v>
+      </c>
+      <c r="D67" s="45">
+        <v>8580</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="7">
+        <v>3</v>
+      </c>
+      <c r="L67" s="74">
+        <v>3</v>
+      </c>
+      <c r="M67" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="8">
+        <v>42097</v>
+      </c>
+      <c r="D68" s="45">
+        <v>8554</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K68" s="7">
+        <v>3</v>
+      </c>
+      <c r="L68" s="74">
+        <v>3</v>
+      </c>
+      <c r="M68" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="19">
+        <v>42095</v>
+      </c>
+      <c r="D69" s="43"/>
+      <c r="E69" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L69" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M69" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D70" s="43"/>
+      <c r="E70" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1</v>
+      </c>
+      <c r="L70" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M70" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L71" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M71" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D72" s="43">
+        <v>8085</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J72" s="25"/>
+      <c r="K72" s="4">
+        <v>2</v>
+      </c>
+      <c r="L72" s="74">
+        <v>2</v>
+      </c>
+      <c r="M72" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D73" s="43">
+        <v>8630</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="J73" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="K73" s="4">
+        <v>4</v>
+      </c>
+      <c r="L73" s="70">
+        <v>2.75</v>
+      </c>
+      <c r="M73" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D74" s="43">
+        <v>8581</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="J74" s="49"/>
+      <c r="K74" s="4">
+        <v>2</v>
+      </c>
+      <c r="L74" s="74">
+        <v>2</v>
+      </c>
+      <c r="M74" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D75" s="45"/>
+      <c r="E75" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L75" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M75" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D76" s="45"/>
+      <c r="E76" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1</v>
+      </c>
+      <c r="L76" s="74">
+        <v>2</v>
+      </c>
+      <c r="M76" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1</v>
+      </c>
+      <c r="L77" s="74">
+        <v>1</v>
+      </c>
+      <c r="M77" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D78" s="45">
+        <v>8554</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+      <c r="L78" s="74">
+        <v>1</v>
+      </c>
+      <c r="M78" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30">
+      <c r="A79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D79" s="45">
+        <v>8085</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L79" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="M79" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D80" s="45">
+        <v>8630</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2</v>
+      </c>
+      <c r="L80" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="M80" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30">
+      <c r="A81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="8">
+        <v>42101</v>
+      </c>
+      <c r="D81" s="45">
+        <v>8581</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="L81" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="M81" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C82" s="19">
+        <v>42102</v>
+      </c>
+      <c r="D82" s="43"/>
+      <c r="E82" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="25"/>
+      <c r="K82" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="19">
+        <v>42102</v>
+      </c>
+      <c r="D83" s="43"/>
+      <c r="E83" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="49"/>
+      <c r="K83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="19">
+        <v>42102</v>
+      </c>
+      <c r="D84" s="43"/>
+      <c r="E84" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="25"/>
+      <c r="K84" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="19">
+        <v>42102</v>
+      </c>
+      <c r="D85" s="43"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" s="25"/>
+      <c r="K85" s="4">
+        <v>5</v>
+      </c>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="8">
+        <v>42103</v>
+      </c>
+      <c r="D86" s="45"/>
+      <c r="E86" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="26"/>
+      <c r="K86" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="8">
+        <v>42103</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="50"/>
+      <c r="K87" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="8">
+        <v>42103</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="26"/>
+      <c r="K88" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="8">
+        <v>42103</v>
+      </c>
+      <c r="D89" s="45"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J89" s="26"/>
+      <c r="K89" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="19">
+        <v>42104</v>
+      </c>
+      <c r="D90" s="43"/>
+      <c r="E90" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" s="25"/>
+      <c r="K90" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="19">
+        <v>42104</v>
+      </c>
+      <c r="D91" s="43"/>
+      <c r="E91" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="49"/>
+      <c r="K91" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="19">
+        <v>42104</v>
+      </c>
+      <c r="D92" s="43"/>
+      <c r="E92" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="25"/>
+      <c r="K92" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="19">
+        <v>42104</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J93" s="25"/>
+      <c r="K93" s="4">
+        <v>5</v>
+      </c>
+      <c r="N93" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="58">
+        <v>42096</v>
+      </c>
+      <c r="D94" s="44"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="27"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="97"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="58">
+        <v>42097</v>
+      </c>
+      <c r="D95" s="44"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" s="27"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="97"/>
+    </row>
+    <row r="96" spans="1:14" ht="30">
+      <c r="A96" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s">
+        <v>183</v>
+      </c>
+      <c r="J96" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="74">
+        <v>1.4</v>
+      </c>
+      <c r="M96" s="74">
+        <v>1</v>
+      </c>
+      <c r="N96" s="69"/>
+    </row>
+    <row r="97" spans="1:14" ht="30">
+      <c r="A97" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D97">
+        <v>8187</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97">
+        <v>2.8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M97" s="74">
+        <v>1</v>
+      </c>
+      <c r="N97" s="69"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D98">
+        <v>8188</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98">
+        <v>2.9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+      <c r="J98" t="s">
+        <v>188</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L98" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M98" s="74">
+        <v>1</v>
+      </c>
+      <c r="N98" s="69"/>
+    </row>
+    <row r="99" spans="1:14" ht="45">
+      <c r="A99" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D99">
+        <v>8272</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99">
+        <v>2.9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+      <c r="J99" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="K99" s="4"/>
+      <c r="L99" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="M99" s="74">
+        <v>1</v>
+      </c>
+      <c r="N99" s="69"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D100">
+        <v>8244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <v>2.8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>190</v>
+      </c>
+      <c r="J100" t="s">
+        <v>191</v>
+      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="M100" s="74">
+        <v>1</v>
+      </c>
+      <c r="N100" s="69"/>
+    </row>
+    <row r="101" spans="1:14" ht="30">
+      <c r="A101" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101" t="s">
+        <v>192</v>
+      </c>
+      <c r="J101" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="K101" s="4"/>
+      <c r="L101" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="M101" s="74">
+        <v>1</v>
+      </c>
+      <c r="N101" s="69"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="19">
+        <v>42100</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102" t="s">
+        <v>194</v>
+      </c>
+      <c r="J102" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L102" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="M102" s="74">
+        <v>1</v>
+      </c>
+      <c r="N102" s="69"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="62">
+        <v>42101</v>
+      </c>
+      <c r="D103" s="63">
+        <v>8636</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65">
+        <v>2.8</v>
+      </c>
+      <c r="H103" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="J103" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K103" s="68">
+        <v>1</v>
+      </c>
+      <c r="L103" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="M103" s="70">
+        <v>0</v>
+      </c>
+      <c r="N103" s="69"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="62">
+        <v>42101</v>
+      </c>
+      <c r="D104" s="63">
+        <v>8637</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="K104" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="L104" s="11">
+        <v>0</v>
+      </c>
+      <c r="M104" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="69"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="62">
+        <v>42101</v>
+      </c>
+      <c r="D105" s="63">
+        <v>8575</v>
+      </c>
+      <c r="E105" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65">
+        <v>2.8</v>
+      </c>
+      <c r="H105" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="J105" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K105" s="68">
+        <v>1</v>
+      </c>
+      <c r="L105" s="74">
+        <v>2</v>
+      </c>
+      <c r="M105" s="74">
+        <v>1</v>
+      </c>
+      <c r="N105" s="69"/>
+    </row>
+    <row r="106" spans="1:14" ht="30">
+      <c r="A106" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="62">
+        <v>42101</v>
+      </c>
+      <c r="D106" s="63">
+        <v>8619</v>
+      </c>
+      <c r="E106" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H106" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="J106" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K106" s="68">
+        <v>1.25</v>
+      </c>
+      <c r="L106" s="74">
+        <v>1</v>
+      </c>
+      <c r="M106" s="74">
+        <v>1</v>
+      </c>
+      <c r="N106" s="69"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="62">
+        <v>42101</v>
+      </c>
+      <c r="D107" s="63">
+        <v>8272</v>
+      </c>
+      <c r="E107" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="65">
+        <v>2.9</v>
+      </c>
+      <c r="H107" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="J107" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K107" s="68"/>
+      <c r="L107" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M107" s="74">
+        <v>1</v>
+      </c>
+      <c r="N107" s="69"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="88">
+        <v>42102</v>
+      </c>
+      <c r="D108" s="89"/>
+      <c r="E108" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="91"/>
+      <c r="I108" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J108" s="92"/>
+      <c r="K108" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="69"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="88">
+        <v>42102</v>
+      </c>
+      <c r="D109" s="89"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="91"/>
+      <c r="I109" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J109" s="92"/>
+      <c r="K109" s="93">
+        <v>3.75</v>
+      </c>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="69"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="62">
+        <v>42103</v>
+      </c>
+      <c r="D110" s="63"/>
+      <c r="E110" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="65"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J110" s="67"/>
+      <c r="K110" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="69"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="62">
+        <v>42103</v>
+      </c>
+      <c r="D111" s="63"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J111" s="67"/>
+      <c r="K111" s="68">
+        <v>3.75</v>
+      </c>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="69"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="88">
+        <v>42104</v>
+      </c>
+      <c r="D112" s="89"/>
+      <c r="E112" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="92"/>
+      <c r="K112" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="69"/>
+    </row>
+    <row r="113" spans="1:42">
+      <c r="A113" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="88">
+        <v>42104</v>
+      </c>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J113" s="92"/>
+      <c r="K113" s="93">
+        <v>3.75</v>
+      </c>
+      <c r="L113" s="59"/>
+      <c r="M113" s="59"/>
+      <c r="N113" s="69"/>
+    </row>
+    <row r="114" spans="1:42">
+      <c r="A114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="36">
         <v>42095</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="D114" s="46">
+        <v>8272</v>
+      </c>
+      <c r="E114" s="34"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J114" s="39"/>
+      <c r="K114" s="9">
+        <v>1</v>
+      </c>
+      <c r="L114" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M114" s="74">
+        <v>1</v>
+      </c>
+      <c r="N114" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42">
+      <c r="A115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="36">
+        <v>42095</v>
+      </c>
+      <c r="D115" s="46">
+        <v>8187</v>
+      </c>
+      <c r="E115" s="34"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="H115" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="J115" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" s="9"/>
+      <c r="L115" s="74">
         <v>0.25</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="M115" s="74">
+        <v>1</v>
+      </c>
+      <c r="N115" s="97"/>
+    </row>
+    <row r="116" spans="1:42">
+      <c r="A116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C116" s="36">
         <v>42095</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="35" t="s">
+      <c r="D116" s="46">
+        <v>8493</v>
+      </c>
+      <c r="E116" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="J116" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K116" s="9">
+        <v>1</v>
+      </c>
+      <c r="L116" s="70">
+        <v>1.25</v>
+      </c>
+      <c r="M116" s="70">
+        <v>0</v>
+      </c>
+      <c r="N116" s="97"/>
+    </row>
+    <row r="117" spans="1:42">
+      <c r="A117" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="B117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="36">
+        <v>42095</v>
+      </c>
+      <c r="D117" s="46">
+        <v>8528</v>
+      </c>
+      <c r="E117" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="J117" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K117" s="9">
+        <v>4</v>
+      </c>
+      <c r="L117" s="74">
+        <v>4</v>
+      </c>
+      <c r="M117" s="74">
+        <v>1</v>
+      </c>
+      <c r="N117" s="97"/>
+    </row>
+    <row r="118" spans="1:42">
+      <c r="A118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D118" s="42">
+        <v>8272</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J118" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M118" s="74">
+        <v>1</v>
+      </c>
+      <c r="N118" s="97"/>
+    </row>
+    <row r="119" spans="1:42">
+      <c r="A119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D119" s="42">
+        <v>7639</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>99</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J119" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L119" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M119" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42">
+      <c r="A120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D120" s="42">
+        <v>8605</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J120" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L120" s="70">
+        <v>1.25</v>
+      </c>
+      <c r="M120" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" ht="30">
+      <c r="A121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D121" s="42">
+        <v>8604</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J121" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L121" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M121" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42">
+      <c r="A122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D122" s="42">
+        <v>8493</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J122" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L122" s="74">
+        <v>1.25</v>
+      </c>
+      <c r="M122" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42">
+      <c r="A123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D123" s="46">
+        <v>8272</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J123" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="K123" s="9">
+        <v>1</v>
+      </c>
+      <c r="L123" s="74">
+        <v>1</v>
+      </c>
+      <c r="M123" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" s="9" customFormat="1">
+      <c r="A124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D124" s="46">
+        <v>8605</v>
+      </c>
+      <c r="E124" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="J124" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K124" s="9">
+        <v>1</v>
+      </c>
+      <c r="L124" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="M124" s="74">
+        <v>1</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+      <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124"/>
+      <c r="AI124"/>
+      <c r="AJ124"/>
+      <c r="AK124"/>
+      <c r="AL124"/>
+      <c r="AM124"/>
+      <c r="AN124"/>
+      <c r="AO124"/>
+      <c r="AP124"/>
+    </row>
+    <row r="125" spans="1:42" s="9" customFormat="1" ht="30">
+      <c r="A125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D125" s="46">
+        <v>8619</v>
+      </c>
+      <c r="E125" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J125" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="K125" s="9">
+        <v>4</v>
+      </c>
+      <c r="L125" s="70">
+        <v>1.75</v>
+      </c>
+      <c r="M125" s="70">
+        <v>0</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+      <c r="AF125"/>
+      <c r="AG125"/>
+      <c r="AH125"/>
+      <c r="AI125"/>
+      <c r="AJ125"/>
+      <c r="AK125"/>
+      <c r="AL125"/>
+      <c r="AM125"/>
+      <c r="AN125"/>
+      <c r="AO125"/>
+      <c r="AP125"/>
+    </row>
+    <row r="126" spans="1:42" s="9" customFormat="1">
+      <c r="A126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D126" s="46">
+        <v>8637</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J126" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L126" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M126" s="74">
+        <v>1</v>
+      </c>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+      <c r="AF126"/>
+      <c r="AG126"/>
+      <c r="AH126"/>
+      <c r="AI126"/>
+      <c r="AJ126"/>
+      <c r="AK126"/>
+      <c r="AL126"/>
+      <c r="AM126"/>
+      <c r="AN126"/>
+      <c r="AO126"/>
+      <c r="AP126"/>
+    </row>
+    <row r="127" spans="1:42" s="9" customFormat="1">
+      <c r="A127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D127" s="46"/>
+      <c r="E127" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="74"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="F127" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I127" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J127" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="L127" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M127" s="74">
+        <v>1</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+      <c r="AF127"/>
+      <c r="AG127"/>
+      <c r="AH127"/>
+      <c r="AI127"/>
+      <c r="AJ127"/>
+      <c r="AK127"/>
+      <c r="AL127"/>
+      <c r="AM127"/>
+      <c r="AN127"/>
+      <c r="AO127"/>
+      <c r="AP127"/>
+    </row>
+    <row r="128" spans="1:42" s="9" customFormat="1">
+      <c r="A128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="36">
+        <v>42097</v>
+      </c>
+      <c r="D128" s="46">
+        <v>8460</v>
+      </c>
+      <c r="E128" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="71"/>
+      <c r="H128" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J128" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L128" s="74">
+        <v>1</v>
+      </c>
+      <c r="M128" s="74">
+        <v>1</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128"/>
+      <c r="AI128"/>
+      <c r="AJ128"/>
+      <c r="AK128"/>
+      <c r="AL128"/>
+      <c r="AM128"/>
+      <c r="AN128"/>
+      <c r="AO128"/>
+      <c r="AP128"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D129" s="42">
+        <v>8188</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G129" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H129" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>129</v>
+      </c>
+      <c r="J129" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K129">
+        <v>0.25</v>
+      </c>
+      <c r="L129" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M129" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D130" s="42">
+        <v>8187</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H130" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>131</v>
+      </c>
+      <c r="J130" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K130">
+        <v>0.25</v>
+      </c>
+      <c r="L130" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M130" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D131" s="42">
+        <v>8272</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H131" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J131" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" s="74">
+        <v>1</v>
+      </c>
+      <c r="M131" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="30">
+      <c r="A132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D132" s="42">
+        <v>8619</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H132" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J132" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="70">
+        <v>1</v>
+      </c>
+      <c r="M132" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D133" s="42">
+        <v>8395</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H133" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J133" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="70">
+        <v>1.25</v>
+      </c>
+      <c r="M133" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D134" s="42">
+        <v>8528</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H134" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J134" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K134">
+        <v>1.5</v>
+      </c>
+      <c r="L134" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="M134" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="53"/>
+      <c r="I135" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J135" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K135">
+        <v>0.5</v>
+      </c>
+      <c r="L135" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="M135" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D136" s="82">
+        <v>8272</v>
+      </c>
+      <c r="E136" s="83"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="J136" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="K136" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="L136" s="74">
+        <v>0.75</v>
+      </c>
+      <c r="M136" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D137" s="82">
+        <v>8188</v>
+      </c>
+      <c r="E137" s="83"/>
+      <c r="F137" s="84"/>
+      <c r="G137" s="84"/>
+      <c r="H137" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="J137" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="K137" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="L137" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M137" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D138" s="82">
+        <v>8187</v>
+      </c>
+      <c r="E138" s="83"/>
+      <c r="F138" s="84"/>
+      <c r="G138" s="84"/>
+      <c r="H138" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="J138" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="K138" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="L138" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M138" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30">
+      <c r="A139" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D139" s="82">
+        <v>8619</v>
+      </c>
+      <c r="E139" s="83"/>
+      <c r="F139" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="84"/>
+      <c r="H139" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="J139" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="K139" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="L139" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="M139" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D140" s="82">
+        <v>8567</v>
+      </c>
+      <c r="E140" s="83"/>
+      <c r="F140" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" s="84"/>
+      <c r="H140" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J140" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="K140" s="84">
+        <v>1</v>
+      </c>
+      <c r="L140" s="74">
+        <v>1</v>
+      </c>
+      <c r="M140" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D141" s="82">
+        <v>8634</v>
+      </c>
+      <c r="E141" s="83"/>
+      <c r="F141" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G141" s="84"/>
+      <c r="H141" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="J141" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="K141" s="84">
+        <v>1.5</v>
+      </c>
+      <c r="L141" s="70">
+        <v>1</v>
+      </c>
+      <c r="M141" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="81">
+        <v>42101</v>
+      </c>
+      <c r="D142" s="82"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="84"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="J142" s="99"/>
+      <c r="K142" s="84"/>
+      <c r="L142" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M142" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8">
-        <v>42095</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="74"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C143" s="101">
+        <v>42102</v>
+      </c>
+      <c r="D143" s="102">
+        <v>8272</v>
+      </c>
+      <c r="E143" s="103"/>
+      <c r="F143" s="100"/>
+      <c r="G143" s="100"/>
+      <c r="H143" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="J143" s="104"/>
+      <c r="K143" s="100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
-        <v>42095</v>
-      </c>
-      <c r="D22" s="46">
-        <v>8580</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="7">
-        <v>3</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="C144" s="101">
+        <v>42102</v>
+      </c>
+      <c r="D144" s="102">
+        <v>8188</v>
+      </c>
+      <c r="E144" s="103"/>
+      <c r="F144" s="100"/>
+      <c r="G144" s="100"/>
+      <c r="H144" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="J144" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K144" s="100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
-        <v>42095</v>
-      </c>
-      <c r="D23" s="46">
-        <v>8581</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="C145" s="101">
+        <v>42102</v>
+      </c>
+      <c r="D145" s="102">
+        <v>8187</v>
+      </c>
+      <c r="E145" s="103"/>
+      <c r="F145" s="100"/>
+      <c r="G145" s="100"/>
+      <c r="H145" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="J145" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K145" s="100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="30">
+      <c r="A146" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="101">
+        <v>42102</v>
+      </c>
+      <c r="D146" s="102">
+        <v>8619</v>
+      </c>
+      <c r="E146" s="103"/>
+      <c r="F146" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G146" s="100"/>
+      <c r="H146" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="J146" s="104"/>
+      <c r="K146" s="100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="101">
+        <v>42102</v>
+      </c>
+      <c r="D147" s="102">
+        <v>8634</v>
+      </c>
+      <c r="E147" s="103"/>
+      <c r="F147" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G147" s="100"/>
+      <c r="H147" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="J147" s="104"/>
+      <c r="K147" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
-        <v>42096</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C148" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D148" s="82">
+        <v>8188</v>
+      </c>
+      <c r="E148" s="83"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="84"/>
+      <c r="H148" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="J148" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K148" s="84"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="19">
-        <v>42096</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="30" t="s">
+      <c r="C149" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D149" s="82">
+        <v>8187</v>
+      </c>
+      <c r="E149" s="83"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="84"/>
+      <c r="H149" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="J149" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K149" s="84"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="B150" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="19">
-        <v>42096</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="C150" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D150" s="82">
+        <v>8272</v>
+      </c>
+      <c r="E150" s="83"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
+      <c r="H150" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="J150" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="K150" s="84"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="19">
-        <v>42096</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="C151" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D151" s="82">
+        <v>8250</v>
+      </c>
+      <c r="E151" s="83"/>
+      <c r="F151" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G151" s="84"/>
+      <c r="H151" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="J151" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="K151" s="84"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D152" s="82">
+        <v>8249</v>
+      </c>
+      <c r="E152" s="83"/>
+      <c r="F152" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152" s="84"/>
+      <c r="H152" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="J152" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="K152" s="84"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="81">
+        <v>42103</v>
+      </c>
+      <c r="D153" s="82">
+        <v>8197</v>
+      </c>
+      <c r="E153" s="83"/>
+      <c r="F153" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G153" s="84"/>
+      <c r="H153" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J153" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="K153" s="84"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8">
-        <v>42097</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="C154" s="101">
+        <v>42104</v>
+      </c>
+      <c r="D154" s="102">
+        <v>8188</v>
+      </c>
+      <c r="E154" s="103"/>
+      <c r="F154" s="100"/>
+      <c r="G154" s="100"/>
+      <c r="H154" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="J154" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K154" s="100"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="8">
-        <v>42097</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="35" t="s">
+      <c r="C155" s="101">
+        <v>42104</v>
+      </c>
+      <c r="D155" s="102">
+        <v>8187</v>
+      </c>
+      <c r="E155" s="103"/>
+      <c r="F155" s="100"/>
+      <c r="G155" s="100"/>
+      <c r="H155" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="J155" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K155" s="100"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="B156" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="8">
-        <v>42097</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C156" s="101">
+        <v>42104</v>
+      </c>
+      <c r="D156" s="102">
+        <v>8272</v>
+      </c>
+      <c r="E156" s="103"/>
+      <c r="F156" s="100"/>
+      <c r="G156" s="100"/>
+      <c r="H156" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="J156" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="K156" s="100"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="8">
-        <v>42097</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="7">
-        <v>5.75</v>
-      </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="20" t="s">
+      <c r="C157" s="101">
+        <v>42104</v>
+      </c>
+      <c r="D157" s="102">
+        <v>8187</v>
+      </c>
+      <c r="E157" s="103"/>
+      <c r="F157" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G157" s="100"/>
+      <c r="H157" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="60">
-        <v>42095</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42">
-      <c r="A33" s="20" t="s">
+      <c r="I157" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="J157" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="K157" s="100"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="101">
+        <v>42104</v>
+      </c>
+      <c r="D158" s="102">
+        <v>8629</v>
+      </c>
+      <c r="E158" s="103"/>
+      <c r="F158" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G158" s="100"/>
+      <c r="H158" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="60">
-        <v>42096</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="74"/>
-    </row>
-    <row r="34" spans="1:42">
-      <c r="A34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="60">
-        <v>42097</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="74"/>
-    </row>
-    <row r="35" spans="1:42">
-      <c r="A35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="19">
-        <v>42100</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="N35" s="71"/>
-    </row>
-    <row r="36" spans="1:42">
-      <c r="A36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="19">
-        <v>42100</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="N36" s="71"/>
-    </row>
-    <row r="37" spans="1:42">
-      <c r="A37" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="19">
-        <v>42100</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="71"/>
-    </row>
-    <row r="38" spans="1:42">
-      <c r="A38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="64">
-        <v>42101</v>
-      </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="71"/>
-    </row>
-    <row r="39" spans="1:42">
-      <c r="A39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="64">
-        <v>42101</v>
-      </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="71"/>
-    </row>
-    <row r="40" spans="1:42">
-      <c r="A40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="64">
-        <v>42101</v>
-      </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="71"/>
-    </row>
-    <row r="41" spans="1:42">
-      <c r="A41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="36">
-        <v>42095</v>
-      </c>
-      <c r="D41" s="47">
-        <v>8272</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42">
-      <c r="A42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="36">
-        <v>42095</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="9">
-        <v>5</v>
-      </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="74"/>
-    </row>
-    <row r="43" spans="1:42">
-      <c r="A43" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="3">
-        <v>42096</v>
-      </c>
-      <c r="D43" s="43">
-        <v>8272</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="74"/>
-    </row>
-    <row r="44" spans="1:42">
-      <c r="A44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="3">
-        <v>42096</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-    </row>
-    <row r="45" spans="1:42">
-      <c r="A45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="36">
-        <v>42097</v>
-      </c>
-      <c r="D45" s="47">
-        <v>8272</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="9">
-        <v>1</v>
-      </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-    </row>
-    <row r="46" spans="1:42" s="9" customFormat="1">
-      <c r="A46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="36">
-        <v>42097</v>
-      </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="34"/>
-      <c r="H46" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="9">
-        <v>5</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46"/>
-      <c r="AN46"/>
-      <c r="AO46"/>
-      <c r="AP46"/>
-    </row>
-    <row r="209" spans="1:54" s="6" customFormat="1">
-      <c r="A209"/>
-      <c r="B209"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="43"/>
-      <c r="E209" s="33"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="28"/>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
-      <c r="N209"/>
-      <c r="O209"/>
-      <c r="P209"/>
-      <c r="Q209"/>
-      <c r="R209"/>
-      <c r="S209"/>
-      <c r="T209"/>
-      <c r="U209"/>
-      <c r="V209"/>
-      <c r="W209"/>
-      <c r="X209"/>
-      <c r="Y209"/>
-      <c r="Z209"/>
-      <c r="AA209"/>
-      <c r="AB209"/>
-      <c r="AC209"/>
-      <c r="AD209"/>
-      <c r="AE209"/>
-      <c r="AF209"/>
-      <c r="AG209"/>
-      <c r="AH209"/>
-      <c r="AI209"/>
-      <c r="AJ209"/>
-      <c r="AK209"/>
-      <c r="AL209"/>
-      <c r="AM209"/>
-      <c r="AN209"/>
-      <c r="AO209"/>
-      <c r="AP209"/>
-      <c r="AQ209"/>
-      <c r="AR209"/>
-      <c r="AS209"/>
-      <c r="AT209"/>
-      <c r="AU209"/>
-      <c r="AV209"/>
-      <c r="AW209"/>
-      <c r="AX209"/>
-      <c r="AY209"/>
-      <c r="AZ209"/>
-      <c r="BA209"/>
-      <c r="BB209"/>
+      <c r="I158" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="J158" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158" s="100"/>
+    </row>
+    <row r="290" spans="1:54" s="6" customFormat="1">
+      <c r="A290"/>
+      <c r="B290"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="42"/>
+      <c r="E290" s="33"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290" s="55"/>
+      <c r="I290" s="33"/>
+      <c r="J290" s="28"/>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
+      <c r="O290"/>
+      <c r="P290"/>
+      <c r="Q290"/>
+      <c r="R290"/>
+      <c r="S290"/>
+      <c r="T290"/>
+      <c r="U290"/>
+      <c r="V290"/>
+      <c r="W290"/>
+      <c r="X290"/>
+      <c r="Y290"/>
+      <c r="Z290"/>
+      <c r="AA290"/>
+      <c r="AB290"/>
+      <c r="AC290"/>
+      <c r="AD290"/>
+      <c r="AE290"/>
+      <c r="AF290"/>
+      <c r="AG290"/>
+      <c r="AH290"/>
+      <c r="AI290"/>
+      <c r="AJ290"/>
+      <c r="AK290"/>
+      <c r="AL290"/>
+      <c r="AM290"/>
+      <c r="AN290"/>
+      <c r="AO290"/>
+      <c r="AP290"/>
+      <c r="AQ290"/>
+      <c r="AR290"/>
+      <c r="AS290"/>
+      <c r="AT290"/>
+      <c r="AU290"/>
+      <c r="AV290"/>
+      <c r="AW290"/>
+      <c r="AX290"/>
+      <c r="AY290"/>
+      <c r="AZ290"/>
+      <c r="BA290"/>
+      <c r="BB290"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="N93:N95"/>
+    <mergeCell ref="N114:N118"/>
     <mergeCell ref="N2:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
